--- a/SampleApp/模版/Sample03_1.xlsx
+++ b/SampleApp/模版/Sample03_1.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFAB8E9-0219-4BCF-9580-F21F9738B5D5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="1050" yWindow="4935" windowWidth="17925" windowHeight="12870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,8 +96,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,13 +112,37 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -147,12 +172,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -248,7 +279,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -316,6 +347,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -351,6 +399,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -526,11 +591,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -550,7 +615,6 @@
         <v>1</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="2:11" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
@@ -559,10 +623,9 @@
       <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="2:11" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -621,7 +684,7 @@
       <c r="E9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -662,6 +725,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SampleApp/模版/Sample03_1.xlsx
+++ b/SampleApp/模版/Sample03_1.xlsx
@@ -3,19 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFAB8E9-0219-4BCF-9580-F21F9738B5D5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA66A913-1A04-40A4-BCE4-0FC75FAF1AB1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="4935" windowWidth="17925" windowHeight="12870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2355" yWindow="6675" windowWidth="17925" windowHeight="12870" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="19">
   <si>
     <t>价格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,7 +146,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -168,11 +169,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -186,6 +237,33 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -594,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -727,4 +805,189 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8511BEEA-17A3-4909-9B36-AE4F93421DA0}">
+  <dimension ref="A3:M12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
+    <col min="3" max="4" width="8" customWidth="1"/>
+    <col min="5" max="5" width="8.875" customWidth="1"/>
+    <col min="6" max="6" width="7.875" customWidth="1"/>
+    <col min="7" max="7" width="9.5" customWidth="1"/>
+    <col min="8" max="11" width="4.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>